--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dsc2-Dsg1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dsc2-Dsg1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1494283333333334</v>
+        <v>0.09662633333333333</v>
       </c>
       <c r="H2">
-        <v>0.448285</v>
+        <v>0.289879</v>
       </c>
       <c r="I2">
-        <v>0.2335607192222788</v>
+        <v>0.1167569426878839</v>
       </c>
       <c r="J2">
-        <v>0.2335607192222788</v>
+        <v>0.1167569426878839</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.004083333333333334</v>
+        <v>0.011155</v>
       </c>
       <c r="N2">
-        <v>0.01225</v>
+        <v>0.033465</v>
       </c>
       <c r="O2">
-        <v>0.2679645630537023</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.2679645630537024</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0006101656944444446</v>
+        <v>0.001077866748333333</v>
       </c>
       <c r="R2">
-        <v>0.005491491250000001</v>
+        <v>0.009700800735000001</v>
       </c>
       <c r="S2">
-        <v>0.06258599607290638</v>
+        <v>0.1167569426878839</v>
       </c>
       <c r="T2">
-        <v>0.06258599607290639</v>
+        <v>0.1167569426878839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1494283333333334</v>
+        <v>0.01499333333333333</v>
       </c>
       <c r="H3">
-        <v>0.448285</v>
+        <v>0.04498</v>
       </c>
       <c r="I3">
-        <v>0.2335607192222788</v>
+        <v>0.01811696356790599</v>
       </c>
       <c r="J3">
-        <v>0.2335607192222788</v>
+        <v>0.01811696356790599</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,30 +617,30 @@
         <v>0.011155</v>
       </c>
       <c r="N3">
-        <v>0.03346499999999999</v>
+        <v>0.033465</v>
       </c>
       <c r="O3">
-        <v>0.7320354369462976</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.7320354369462977</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.001666873058333333</v>
+        <v>0.0001672506333333333</v>
       </c>
       <c r="R3">
-        <v>0.015001857525</v>
+        <v>0.0015052557</v>
       </c>
       <c r="S3">
-        <v>0.1709747231493724</v>
+        <v>0.01811696356790599</v>
       </c>
       <c r="T3">
-        <v>0.1709747231493724</v>
+        <v>0.01811696356790599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01499333333333333</v>
+        <v>0.7159656666666666</v>
       </c>
       <c r="H4">
-        <v>0.04498</v>
+        <v>2.147897</v>
       </c>
       <c r="I4">
-        <v>0.02343500485320298</v>
+        <v>0.86512609374421</v>
       </c>
       <c r="J4">
-        <v>0.02343500485320298</v>
+        <v>0.86512609374421</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.004083333333333334</v>
+        <v>0.011155</v>
       </c>
       <c r="N4">
-        <v>0.01225</v>
+        <v>0.033465</v>
       </c>
       <c r="O4">
-        <v>0.2679645630537023</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.2679645630537024</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>6.122277777777777E-05</v>
+        <v>0.007986597011666666</v>
       </c>
       <c r="R4">
-        <v>0.000551005</v>
+        <v>0.07187937310500001</v>
       </c>
       <c r="S4">
-        <v>0.006279750835649929</v>
+        <v>0.86512609374421</v>
       </c>
       <c r="T4">
-        <v>0.006279750835649931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.01499333333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.04498</v>
-      </c>
-      <c r="I5">
-        <v>0.02343500485320298</v>
-      </c>
-      <c r="J5">
-        <v>0.02343500485320298</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.011155</v>
-      </c>
-      <c r="N5">
-        <v>0.03346499999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.7320354369462976</v>
-      </c>
-      <c r="P5">
-        <v>0.7320354369462977</v>
-      </c>
-      <c r="Q5">
-        <v>0.0001672506333333333</v>
-      </c>
-      <c r="R5">
-        <v>0.0015052557</v>
-      </c>
-      <c r="S5">
-        <v>0.01715525401755305</v>
-      </c>
-      <c r="T5">
-        <v>0.01715525401755305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.4753620000000001</v>
-      </c>
-      <c r="H6">
-        <v>1.426086</v>
-      </c>
-      <c r="I6">
-        <v>0.7430042759245182</v>
-      </c>
-      <c r="J6">
-        <v>0.7430042759245182</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.004083333333333334</v>
-      </c>
-      <c r="N6">
-        <v>0.01225</v>
-      </c>
-      <c r="O6">
-        <v>0.2679645630537023</v>
-      </c>
-      <c r="P6">
-        <v>0.2679645630537024</v>
-      </c>
-      <c r="Q6">
-        <v>0.0019410615</v>
-      </c>
-      <c r="R6">
-        <v>0.0174695535</v>
-      </c>
-      <c r="S6">
-        <v>0.199098816145146</v>
-      </c>
-      <c r="T6">
-        <v>0.199098816145146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.4753620000000001</v>
-      </c>
-      <c r="H7">
-        <v>1.426086</v>
-      </c>
-      <c r="I7">
-        <v>0.7430042759245182</v>
-      </c>
-      <c r="J7">
-        <v>0.7430042759245182</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.011155</v>
-      </c>
-      <c r="N7">
-        <v>0.03346499999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.7320354369462976</v>
-      </c>
-      <c r="P7">
-        <v>0.7320354369462977</v>
-      </c>
-      <c r="Q7">
-        <v>0.00530266311</v>
-      </c>
-      <c r="R7">
-        <v>0.04772396799</v>
-      </c>
-      <c r="S7">
-        <v>0.5439054597793721</v>
-      </c>
-      <c r="T7">
-        <v>0.5439054597793722</v>
+        <v>0.86512609374421</v>
       </c>
     </row>
   </sheetData>
